--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value742.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value742.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>1.116251945495605</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.8089519739151</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.8260621141542179</v>
+        <v>1.827853918075562</v>
       </c>
       <c r="E1">
-        <v>0.614504616105629</v>
+        <v>1.109164834022522</v>
       </c>
     </row>
   </sheetData>
